--- a/Code/Results/Cases/Case_0_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_135/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4586317146610668</v>
+        <v>0.4165321785010008</v>
       </c>
       <c r="D2">
-        <v>0.3112698095544886</v>
+        <v>0.1770283408321944</v>
       </c>
       <c r="E2">
-        <v>0.206496723795297</v>
+        <v>0.1759721268985714</v>
       </c>
       <c r="F2">
-        <v>6.823216452811664</v>
+        <v>3.387674600170385</v>
       </c>
       <c r="G2">
-        <v>8.193417089642764</v>
+        <v>3.717185640561695</v>
       </c>
       <c r="H2">
-        <v>4.011489358630115</v>
+        <v>2.478075300866522</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1915123161195496</v>
+        <v>0.1535809029467714</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3985609468850271</v>
+        <v>0.4086178312782067</v>
       </c>
       <c r="D3">
-        <v>0.2646769208505475</v>
+        <v>0.1696488696270393</v>
       </c>
       <c r="E3">
-        <v>0.1787805119231223</v>
+        <v>0.1722178120729154</v>
       </c>
       <c r="F3">
-        <v>5.802478343674238</v>
+        <v>3.208307731575303</v>
       </c>
       <c r="G3">
-        <v>6.950772208690978</v>
+        <v>3.493995001652593</v>
       </c>
       <c r="H3">
-        <v>3.432167217395033</v>
+        <v>2.383840216937983</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1652488568003747</v>
+        <v>0.1499384042476493</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3640249035108241</v>
+        <v>0.4040558284518738</v>
       </c>
       <c r="D4">
-        <v>0.2378997651224068</v>
+        <v>0.1652659502853737</v>
       </c>
       <c r="E4">
-        <v>0.1628501555820279</v>
+        <v>0.1700421457223484</v>
       </c>
       <c r="F4">
-        <v>5.211041376224131</v>
+        <v>3.10095405640476</v>
       </c>
       <c r="G4">
-        <v>6.230567228428754</v>
+        <v>3.360036834047719</v>
       </c>
       <c r="H4">
-        <v>3.097327659573807</v>
+        <v>2.32794307985273</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1501577798987483</v>
+        <v>0.1478181069540341</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3504320524586433</v>
+        <v>0.4022706003519829</v>
       </c>
       <c r="D5">
-        <v>0.2273568687915741</v>
+        <v>0.1635162936334638</v>
       </c>
       <c r="E5">
-        <v>0.1565805807202629</v>
+        <v>0.1691876484232147</v>
       </c>
       <c r="F5">
-        <v>4.977166558651419</v>
+        <v>3.057888776803537</v>
       </c>
       <c r="G5">
-        <v>5.94571399757001</v>
+        <v>3.306202523924014</v>
       </c>
       <c r="H5">
-        <v>2.965114850085683</v>
+        <v>2.305649011294406</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1442189496460671</v>
+        <v>0.1469828456313849</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3482012519225179</v>
+        <v>0.4019785956468525</v>
       </c>
       <c r="D6">
-        <v>0.2256262219510461</v>
+        <v>0.1632279403856387</v>
       </c>
       <c r="E6">
-        <v>0.1555516488103024</v>
+        <v>0.1690476856441485</v>
       </c>
       <c r="F6">
-        <v>4.93871928420009</v>
+        <v>3.050778551949776</v>
       </c>
       <c r="G6">
-        <v>5.898882401300057</v>
+        <v>3.297308380218112</v>
       </c>
       <c r="H6">
-        <v>2.943391441408949</v>
+        <v>2.301976091865981</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1432443080866719</v>
+        <v>0.1468458763935558</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3638397661159161</v>
+        <v>0.4040314545854926</v>
       </c>
       <c r="D7">
-        <v>0.2377561918918616</v>
+        <v>0.165242207419297</v>
       </c>
       <c r="E7">
-        <v>0.1627647620480595</v>
+        <v>0.1700304922803255</v>
       </c>
       <c r="F7">
-        <v>5.207860370668385</v>
+        <v>3.100370522109301</v>
       </c>
       <c r="G7">
-        <v>6.226693103959349</v>
+        <v>3.359307776180344</v>
       </c>
       <c r="H7">
-        <v>3.095528612869828</v>
+        <v>2.32764046474864</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1500768901757112</v>
+        <v>0.1478067263900584</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4373578639132916</v>
+        <v>0.4137409840663224</v>
       </c>
       <c r="D8">
-        <v>0.2947623371459827</v>
+        <v>0.1744526551100023</v>
       </c>
       <c r="E8">
-        <v>0.1966796769582189</v>
+        <v>0.1746504803007056</v>
       </c>
       <c r="F8">
-        <v>6.462763192167472</v>
+        <v>3.325242206422672</v>
       </c>
       <c r="G8">
-        <v>7.754635027764266</v>
+        <v>3.639577500156065</v>
       </c>
       <c r="H8">
-        <v>3.806723679525021</v>
+        <v>2.4451698046758</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1822084474743448</v>
+        <v>0.1523005766433769</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6069358654757195</v>
+        <v>0.4351876940654904</v>
       </c>
       <c r="D9">
-        <v>0.4268073152807119</v>
+        <v>0.1937285989377386</v>
       </c>
       <c r="E9">
-        <v>0.2749988937932528</v>
+        <v>0.1847596816637775</v>
       </c>
       <c r="F9">
-        <v>9.311152091675297</v>
+        <v>3.789042000569282</v>
       </c>
       <c r="G9">
-        <v>11.22185098726942</v>
+        <v>4.21460069015319</v>
       </c>
       <c r="H9">
-        <v>5.429509296704055</v>
+        <v>2.69166815033725</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2564941829559473</v>
+        <v>0.1620563131879749</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7616359708831908</v>
+        <v>0.452479671672819</v>
       </c>
       <c r="D10">
-        <v>0.5487077200174042</v>
+        <v>0.208688054512379</v>
       </c>
       <c r="E10">
-        <v>0.3466218459656218</v>
+        <v>0.1928588232532249</v>
       </c>
       <c r="F10">
-        <v>11.87144664811285</v>
+        <v>4.144858485178389</v>
       </c>
       <c r="G10">
-        <v>14.33970645166983</v>
+        <v>4.653973240002585</v>
       </c>
       <c r="H10">
-        <v>6.895740712354495</v>
+        <v>2.883189741785998</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3245876289642098</v>
+        <v>0.1698300199493019</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.8448027306117751</v>
+        <v>0.4606950994645729</v>
       </c>
       <c r="D11">
-        <v>0.6150337249569304</v>
+        <v>0.2156796332962756</v>
       </c>
       <c r="E11">
-        <v>0.3852145766379991</v>
+        <v>0.1966965571950539</v>
       </c>
       <c r="F11">
-        <v>13.23649340274397</v>
+        <v>4.310259620081865</v>
       </c>
       <c r="G11">
-        <v>16.00317022916238</v>
+        <v>4.857845151148183</v>
       </c>
       <c r="H11">
-        <v>7.679944162411118</v>
+        <v>2.97272826291487</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.361358072054685</v>
+        <v>0.1735051820266733</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731763</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8791549061947705</v>
+        <v>0.4638575714749607</v>
       </c>
       <c r="D12">
-        <v>0.6426189304055185</v>
+        <v>0.2183550492997881</v>
       </c>
       <c r="E12">
-        <v>0.4011757666066558</v>
+        <v>0.1981724717683875</v>
       </c>
       <c r="F12">
-        <v>13.79830486974419</v>
+        <v>4.373422961433562</v>
       </c>
       <c r="G12">
-        <v>16.68810274850773</v>
+        <v>4.935647507225099</v>
       </c>
       <c r="H12">
-        <v>8.003166897875417</v>
+        <v>3.006993552294546</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.376583928371204</v>
+        <v>0.1749174252542218</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735713398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.871604500250811</v>
+        <v>0.4631741670923759</v>
       </c>
       <c r="D13">
-        <v>0.6365458300892328</v>
+        <v>0.2177775946004488</v>
       </c>
       <c r="E13">
-        <v>0.3976665200210192</v>
+        <v>0.1978535902517393</v>
       </c>
       <c r="F13">
-        <v>13.67491886356407</v>
+        <v>4.35979571788647</v>
       </c>
       <c r="G13">
-        <v>16.53766027165028</v>
+        <v>4.918864256874883</v>
       </c>
       <c r="H13">
-        <v>7.932157102543442</v>
+        <v>2.999597750250189</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3732353917224032</v>
+        <v>0.174612350616286</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991888</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.8475630008301209</v>
+        <v>0.460954239117882</v>
       </c>
       <c r="D14">
-        <v>0.6172459832145023</v>
+        <v>0.2158991769628358</v>
       </c>
       <c r="E14">
-        <v>0.3864966352412011</v>
+        <v>0.1968175242162289</v>
       </c>
       <c r="F14">
-        <v>13.28167827843816</v>
+        <v>4.315445372688544</v>
       </c>
       <c r="G14">
-        <v>16.05825041821902</v>
+        <v>4.864233814429042</v>
       </c>
       <c r="H14">
-        <v>7.705930056479872</v>
+        <v>2.975540024997656</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3625806559746536</v>
+        <v>0.1736209531488981</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.8332521452384754</v>
+        <v>0.4596012096658626</v>
       </c>
       <c r="D15">
-        <v>0.6057842498999833</v>
+        <v>0.2147522513856472</v>
       </c>
       <c r="E15">
-        <v>0.3798505428312424</v>
+        <v>0.1961858711810578</v>
       </c>
       <c r="F15">
-        <v>13.0473320912995</v>
+        <v>4.288349091472526</v>
       </c>
       <c r="G15">
-        <v>15.7725960804151</v>
+        <v>4.830850061484398</v>
       </c>
       <c r="H15">
-        <v>7.571176248152653</v>
+        <v>2.960851082899751</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.356243638354286</v>
+        <v>0.1730163856637148</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193845</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7565302999409766</v>
+        <v>0.4519499071874975</v>
       </c>
       <c r="D16">
-        <v>0.5446556622906087</v>
+        <v>0.2082349787651481</v>
       </c>
       <c r="E16">
-        <v>0.3442547658710851</v>
+        <v>0.1926111549514715</v>
       </c>
       <c r="F16">
-        <v>11.78740682546314</v>
+        <v>4.134122087581517</v>
       </c>
       <c r="G16">
-        <v>14.23732497742589</v>
+        <v>4.64073235703637</v>
       </c>
       <c r="H16">
-        <v>6.847514657176873</v>
+        <v>2.87738777250263</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.322334257127892</v>
+        <v>0.1695926820739118</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7132754290569494</v>
+        <v>0.4473463998459408</v>
       </c>
       <c r="D17">
-        <v>0.5104117547147951</v>
+        <v>0.2042853293912401</v>
       </c>
       <c r="E17">
-        <v>0.3242104549723948</v>
+        <v>0.1904578833456796</v>
       </c>
       <c r="F17">
-        <v>11.07424650676194</v>
+        <v>4.040429598389494</v>
       </c>
       <c r="G17">
-        <v>13.36864280453005</v>
+        <v>4.525143391300105</v>
       </c>
       <c r="H17">
-        <v>6.438528201123461</v>
+        <v>2.826812389449003</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3032612956764495</v>
+        <v>0.1675283167678998</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6895162251193483</v>
+        <v>0.4447313769314292</v>
       </c>
       <c r="D18">
-        <v>0.4916638105443383</v>
+        <v>0.2020310800897107</v>
       </c>
       <c r="E18">
-        <v>0.3132073571999854</v>
+        <v>0.1892337800419384</v>
       </c>
       <c r="F18">
-        <v>10.68158403891218</v>
+        <v>3.986871930230961</v>
       </c>
       <c r="G18">
-        <v>12.89043859483479</v>
+        <v>4.459034521134527</v>
       </c>
       <c r="H18">
-        <v>6.213544122872406</v>
+        <v>2.797949289413225</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2927976395906455</v>
+        <v>0.1663539836133054</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.6816429315787502</v>
+        <v>0.4438515699405912</v>
       </c>
       <c r="D19">
-        <v>0.4854603152886341</v>
+        <v>0.2012708017276452</v>
       </c>
       <c r="E19">
-        <v>0.3095622066155599</v>
+        <v>0.1888217755454988</v>
       </c>
       <c r="F19">
-        <v>10.55131145096601</v>
+        <v>3.968794587278524</v>
       </c>
       <c r="G19">
-        <v>12.73179853442497</v>
+        <v>4.43671481326902</v>
       </c>
       <c r="H19">
-        <v>6.138934155411391</v>
+        <v>2.788215292087557</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.289332136171538</v>
+        <v>0.1659585963334393</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.717758768717232</v>
+        <v>0.447833048226471</v>
       </c>
       <c r="D20">
-        <v>0.5139542555573655</v>
+        <v>0.2047039592653448</v>
       </c>
       <c r="E20">
-        <v>0.3262872688255527</v>
+        <v>0.1906856080695505</v>
       </c>
       <c r="F20">
-        <v>11.14826558184595</v>
+        <v>4.050368838828405</v>
       </c>
       <c r="G20">
-        <v>13.4587936285468</v>
+        <v>4.537409057556317</v>
       </c>
       <c r="H20">
-        <v>6.480955198824915</v>
+        <v>2.832172696867701</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3052367771726807</v>
+        <v>0.1677467188202399</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003277312</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.8545350010944333</v>
+        <v>0.4616048787614488</v>
       </c>
       <c r="D21">
-        <v>0.6228370750641261</v>
+        <v>0.2164501492096917</v>
       </c>
       <c r="E21">
-        <v>0.389735261669081</v>
+        <v>0.1971212224547401</v>
       </c>
       <c r="F21">
-        <v>13.39577492780086</v>
+        <v>4.32845760456712</v>
       </c>
       <c r="G21">
-        <v>16.19733911071643</v>
+        <v>4.880263595686813</v>
       </c>
       <c r="H21">
-        <v>7.77155501252912</v>
+        <v>2.98259652285725</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3656693584702708</v>
+        <v>0.1739115885413014</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709366</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.9618153124806099</v>
+        <v>0.4709061736978981</v>
       </c>
       <c r="D22">
-        <v>0.7094980214577902</v>
+        <v>0.2242898467258669</v>
       </c>
       <c r="E22">
-        <v>0.4396357552484673</v>
+        <v>0.2014595680060083</v>
       </c>
       <c r="F22">
-        <v>15.14569387987177</v>
+        <v>4.513301266596727</v>
       </c>
       <c r="G22">
-        <v>18.33160392194424</v>
+        <v>5.107851384151218</v>
       </c>
       <c r="H22">
-        <v>8.779438096995307</v>
+        <v>3.083005467025714</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4133197879086481</v>
+        <v>0.1780606847380568</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057951</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9023303756650591</v>
+        <v>0.4659139666193539</v>
       </c>
       <c r="D23">
-        <v>0.661296251071434</v>
+        <v>0.2200903934251812</v>
       </c>
       <c r="E23">
-        <v>0.4119510256690049</v>
+        <v>0.1991318052414854</v>
       </c>
       <c r="F23">
-        <v>14.17669667577371</v>
+        <v>4.414356361456555</v>
       </c>
       <c r="G23">
-        <v>17.1495295198099</v>
+        <v>4.986053475071742</v>
       </c>
       <c r="H23">
-        <v>8.221015371799183</v>
+        <v>3.02921931974447</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3868691865412472</v>
+        <v>0.1758350602497245</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7157284621252131</v>
+        <v>0.447612936177336</v>
       </c>
       <c r="D24">
-        <v>0.5123498219422231</v>
+        <v>0.204514645519339</v>
       </c>
       <c r="E24">
-        <v>0.3253467500140346</v>
+        <v>0.1905826106539976</v>
       </c>
       <c r="F24">
-        <v>11.1147485539818</v>
+        <v>4.04587435232574</v>
       </c>
       <c r="G24">
-        <v>13.41797161486267</v>
+        <v>4.531862677884931</v>
       </c>
       <c r="H24">
-        <v>6.461742938861335</v>
+        <v>2.829748638198907</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3043421289862351</v>
+        <v>0.1676479403671038</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5571815134993585</v>
+        <v>0.4291212773186999</v>
       </c>
       <c r="D25">
-        <v>0.3879325422301889</v>
+        <v>0.1883781532025068</v>
       </c>
       <c r="E25">
-        <v>0.2520024235128631</v>
+        <v>0.1819092697119515</v>
       </c>
       <c r="F25">
-        <v>8.480752006334257</v>
+        <v>3.661011727456582</v>
       </c>
       <c r="G25">
-        <v>10.21100064283098</v>
+        <v>4.056177817182629</v>
       </c>
       <c r="H25">
-        <v>4.955388822889574</v>
+        <v>2.623202387292906</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.234665987824684</v>
+        <v>0.1593129888777014</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_135/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4165321785010008</v>
+        <v>0.4586317146612657</v>
       </c>
       <c r="D2">
-        <v>0.1770283408321944</v>
+        <v>0.3112698095548581</v>
       </c>
       <c r="E2">
-        <v>0.1759721268985714</v>
+        <v>0.2064967237952899</v>
       </c>
       <c r="F2">
-        <v>3.387674600170385</v>
+        <v>6.823216452811664</v>
       </c>
       <c r="G2">
-        <v>3.717185640561695</v>
+        <v>8.193417089642594</v>
       </c>
       <c r="H2">
-        <v>2.478075300866522</v>
+        <v>4.011489358630058</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1535809029467714</v>
+        <v>0.1915123161194359</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4086178312782067</v>
+        <v>0.3985609468852829</v>
       </c>
       <c r="D3">
-        <v>0.1696488696270393</v>
+        <v>0.2646769208505049</v>
       </c>
       <c r="E3">
-        <v>0.1722178120729154</v>
+        <v>0.1787805119231223</v>
       </c>
       <c r="F3">
-        <v>3.208307731575303</v>
+        <v>5.802478343674238</v>
       </c>
       <c r="G3">
-        <v>3.493995001652593</v>
+        <v>6.950772208690978</v>
       </c>
       <c r="H3">
-        <v>2.383840216937983</v>
+        <v>3.432167217395033</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1499384042476493</v>
+        <v>0.1652488568006802</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4040558284518738</v>
+        <v>0.3640249035111935</v>
       </c>
       <c r="D4">
-        <v>0.1652659502853737</v>
+        <v>0.23789976512235</v>
       </c>
       <c r="E4">
-        <v>0.1700421457223484</v>
+        <v>0.1628501555820563</v>
       </c>
       <c r="F4">
-        <v>3.10095405640476</v>
+        <v>5.211041376224074</v>
       </c>
       <c r="G4">
-        <v>3.360036834047719</v>
+        <v>6.230567228428811</v>
       </c>
       <c r="H4">
-        <v>2.32794307985273</v>
+        <v>3.097327659573807</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1478181069540341</v>
+        <v>0.1501577798988691</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4022706003519829</v>
+        <v>0.3504320524586433</v>
       </c>
       <c r="D5">
-        <v>0.1635162936334638</v>
+        <v>0.2273568687917873</v>
       </c>
       <c r="E5">
-        <v>0.1691876484232147</v>
+        <v>0.1565805807202594</v>
       </c>
       <c r="F5">
-        <v>3.057888776803537</v>
+        <v>4.977166558651419</v>
       </c>
       <c r="G5">
-        <v>3.306202523924014</v>
+        <v>5.94571399756984</v>
       </c>
       <c r="H5">
-        <v>2.305649011294406</v>
+        <v>2.965114850085627</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1469828456313849</v>
+        <v>0.1442189496461452</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4019785956468525</v>
+        <v>0.3482012519226885</v>
       </c>
       <c r="D6">
-        <v>0.1632279403856387</v>
+        <v>0.2256262219510461</v>
       </c>
       <c r="E6">
-        <v>0.1690476856441485</v>
+        <v>0.1555516488102775</v>
       </c>
       <c r="F6">
-        <v>3.050778551949776</v>
+        <v>4.938719284200147</v>
       </c>
       <c r="G6">
-        <v>3.297308380218112</v>
+        <v>5.898882401300057</v>
       </c>
       <c r="H6">
-        <v>2.301976091865981</v>
+        <v>2.943391441408892</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1468458763935558</v>
+        <v>0.1432443080868637</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4040314545854926</v>
+        <v>0.3638397661159445</v>
       </c>
       <c r="D7">
-        <v>0.165242207419297</v>
+        <v>0.2377561918920605</v>
       </c>
       <c r="E7">
-        <v>0.1700304922803255</v>
+        <v>0.1627647620479884</v>
       </c>
       <c r="F7">
-        <v>3.100370522109301</v>
+        <v>5.207860370668385</v>
       </c>
       <c r="G7">
-        <v>3.359307776180344</v>
+        <v>6.226693103959576</v>
       </c>
       <c r="H7">
-        <v>2.32764046474864</v>
+        <v>3.095528612869771</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1478067263900584</v>
+        <v>0.1500768901757041</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4137409840663224</v>
+        <v>0.4373578639132063</v>
       </c>
       <c r="D8">
-        <v>0.1744526551100023</v>
+        <v>0.2947623371459827</v>
       </c>
       <c r="E8">
-        <v>0.1746504803007056</v>
+        <v>0.1966796769582047</v>
       </c>
       <c r="F8">
-        <v>3.325242206422672</v>
+        <v>6.462763192167529</v>
       </c>
       <c r="G8">
-        <v>3.639577500156065</v>
+        <v>7.754635027764095</v>
       </c>
       <c r="H8">
-        <v>2.4451698046758</v>
+        <v>3.806723679524964</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1523005766433769</v>
+        <v>0.1822084474745296</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4351876940654904</v>
+        <v>0.606935865475748</v>
       </c>
       <c r="D9">
-        <v>0.1937285989377386</v>
+        <v>0.4268073152809109</v>
       </c>
       <c r="E9">
-        <v>0.1847596816637775</v>
+        <v>0.2749988937931604</v>
       </c>
       <c r="F9">
-        <v>3.789042000569282</v>
+        <v>9.311152091675183</v>
       </c>
       <c r="G9">
-        <v>4.21460069015319</v>
+        <v>11.22185098726925</v>
       </c>
       <c r="H9">
-        <v>2.69166815033725</v>
+        <v>5.429509296704055</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1620563131879749</v>
+        <v>0.2564941829560468</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.452479671672819</v>
+        <v>0.7616359708833045</v>
       </c>
       <c r="D10">
-        <v>0.208688054512379</v>
+        <v>0.5487077200176032</v>
       </c>
       <c r="E10">
-        <v>0.1928588232532249</v>
+        <v>0.3466218459654939</v>
       </c>
       <c r="F10">
-        <v>4.144858485178389</v>
+        <v>11.87144664811285</v>
       </c>
       <c r="G10">
-        <v>4.653973240002585</v>
+        <v>14.33970645166983</v>
       </c>
       <c r="H10">
-        <v>2.883189741785998</v>
+        <v>6.895740712354552</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1698300199493019</v>
+        <v>0.3245876289640535</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4606950994645729</v>
+        <v>0.844802730611832</v>
       </c>
       <c r="D11">
-        <v>0.2156796332962756</v>
+        <v>0.6150337249567883</v>
       </c>
       <c r="E11">
-        <v>0.1966965571950539</v>
+        <v>0.385214576638127</v>
       </c>
       <c r="F11">
-        <v>4.310259620081865</v>
+        <v>13.23649340274392</v>
       </c>
       <c r="G11">
-        <v>4.857845151148183</v>
+        <v>16.00317022916215</v>
       </c>
       <c r="H11">
-        <v>2.97272826291487</v>
+        <v>7.679944162411061</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1735051820266733</v>
+        <v>0.3613580720547986</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4638575714749607</v>
+        <v>0.879154906194259</v>
       </c>
       <c r="D12">
-        <v>0.2183550492997881</v>
+        <v>0.642618930405888</v>
       </c>
       <c r="E12">
-        <v>0.1981724717683875</v>
+        <v>0.4011757666067126</v>
       </c>
       <c r="F12">
-        <v>4.373422961433562</v>
+        <v>13.79830486974419</v>
       </c>
       <c r="G12">
-        <v>4.935647507225099</v>
+        <v>16.68810274850779</v>
       </c>
       <c r="H12">
-        <v>3.006993552294546</v>
+        <v>8.003166897875474</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1749174252542218</v>
+        <v>0.3765839283711756</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735713398</v>
+        <v>12.32306348037537</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4631741670923759</v>
+        <v>0.8716045002512089</v>
       </c>
       <c r="D13">
-        <v>0.2177775946004488</v>
+        <v>0.6365458300892612</v>
       </c>
       <c r="E13">
-        <v>0.1978535902517393</v>
+        <v>0.3976665200211045</v>
       </c>
       <c r="F13">
-        <v>4.35979571788647</v>
+        <v>13.67491886356402</v>
       </c>
       <c r="G13">
-        <v>4.918864256874883</v>
+        <v>16.53766027165</v>
       </c>
       <c r="H13">
-        <v>2.999597750250189</v>
+        <v>7.932157102543556</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.174612350616286</v>
+        <v>0.3732353917225453</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991877</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.460954239117882</v>
+        <v>0.8475630008292967</v>
       </c>
       <c r="D14">
-        <v>0.2158991769628358</v>
+        <v>0.6172459832145023</v>
       </c>
       <c r="E14">
-        <v>0.1968175242162289</v>
+        <v>0.3864966352412154</v>
       </c>
       <c r="F14">
-        <v>4.315445372688544</v>
+        <v>13.28167827843822</v>
       </c>
       <c r="G14">
-        <v>4.864233814429042</v>
+        <v>16.05825041821902</v>
       </c>
       <c r="H14">
-        <v>2.975540024997656</v>
+        <v>7.705930056479986</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1736209531488981</v>
+        <v>0.362580655974611</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139294</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4596012096658626</v>
+        <v>0.8332521452385038</v>
       </c>
       <c r="D15">
-        <v>0.2147522513856472</v>
+        <v>0.6057842499001538</v>
       </c>
       <c r="E15">
-        <v>0.1961858711810578</v>
+        <v>0.3798505428312779</v>
       </c>
       <c r="F15">
-        <v>4.288349091472526</v>
+        <v>13.04733209129961</v>
       </c>
       <c r="G15">
-        <v>4.830850061484398</v>
+        <v>15.77259608041527</v>
       </c>
       <c r="H15">
-        <v>2.960851082899751</v>
+        <v>7.571176248152824</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1730163856637148</v>
+        <v>0.3562436383541581</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.9380108119384</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4519499071874975</v>
+        <v>0.7565302999410619</v>
       </c>
       <c r="D16">
-        <v>0.2082349787651481</v>
+        <v>0.5446556622909782</v>
       </c>
       <c r="E16">
-        <v>0.1926111549514715</v>
+        <v>0.3442547658711561</v>
       </c>
       <c r="F16">
-        <v>4.134122087581517</v>
+        <v>11.78740682546317</v>
       </c>
       <c r="G16">
-        <v>4.64073235703637</v>
+        <v>14.23732497742594</v>
       </c>
       <c r="H16">
-        <v>2.87738777250263</v>
+        <v>6.84751465717693</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1695926820739118</v>
+        <v>0.3223342571280483</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560718</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4473463998459408</v>
+        <v>0.7132754290565231</v>
       </c>
       <c r="D17">
-        <v>0.2042853293912401</v>
+        <v>0.5104117547147666</v>
       </c>
       <c r="E17">
-        <v>0.1904578833456796</v>
+        <v>0.3242104549723592</v>
       </c>
       <c r="F17">
-        <v>4.040429598389494</v>
+        <v>11.07424650676188</v>
       </c>
       <c r="G17">
-        <v>4.525143391300105</v>
+        <v>13.36864280453023</v>
       </c>
       <c r="H17">
-        <v>2.826812389449003</v>
+        <v>6.438528201123518</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1675283167678998</v>
+        <v>0.3032612956765206</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282927</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4447313769314292</v>
+        <v>0.6895162251197178</v>
       </c>
       <c r="D18">
-        <v>0.2020310800897107</v>
+        <v>0.4916638105441393</v>
       </c>
       <c r="E18">
-        <v>0.1892337800419384</v>
+        <v>0.3132073571999641</v>
       </c>
       <c r="F18">
-        <v>3.986871930230961</v>
+        <v>10.68158403891218</v>
       </c>
       <c r="G18">
-        <v>4.459034521134527</v>
+        <v>12.89043859483468</v>
       </c>
       <c r="H18">
-        <v>2.797949289413225</v>
+        <v>6.213544122872406</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1663539836133054</v>
+        <v>0.2927976395906171</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637129</v>
+        <v>10.55149949033279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4438515699405912</v>
+        <v>0.6816429315784092</v>
       </c>
       <c r="D19">
-        <v>0.2012708017276452</v>
+        <v>0.4854603152886341</v>
       </c>
       <c r="E19">
-        <v>0.1888217755454988</v>
+        <v>0.3095622066155599</v>
       </c>
       <c r="F19">
-        <v>3.968794587278524</v>
+        <v>10.55131145096587</v>
       </c>
       <c r="G19">
-        <v>4.43671481326902</v>
+        <v>12.73179853442491</v>
       </c>
       <c r="H19">
-        <v>2.788215292087557</v>
+        <v>6.138934155411448</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1659585963334393</v>
+        <v>0.289332136171268</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.447833048226471</v>
+        <v>0.7177587687177152</v>
       </c>
       <c r="D20">
-        <v>0.2047039592653448</v>
+        <v>0.5139542555571666</v>
       </c>
       <c r="E20">
-        <v>0.1906856080695505</v>
+        <v>0.3262872688255811</v>
       </c>
       <c r="F20">
-        <v>4.050368838828405</v>
+        <v>11.14826558184603</v>
       </c>
       <c r="G20">
-        <v>4.537409057556317</v>
+        <v>13.45879362854697</v>
       </c>
       <c r="H20">
-        <v>2.832172696867701</v>
+        <v>6.480955198824915</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1677467188202399</v>
+        <v>0.305236777172837</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003277312</v>
+        <v>10.84659223998085</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4616048787614488</v>
+        <v>0.8545350010949733</v>
       </c>
       <c r="D21">
-        <v>0.2164501492096917</v>
+        <v>0.6228370750641545</v>
       </c>
       <c r="E21">
-        <v>0.1971212224547401</v>
+        <v>0.3897352616691023</v>
       </c>
       <c r="F21">
-        <v>4.32845760456712</v>
+        <v>13.3957749278008</v>
       </c>
       <c r="G21">
-        <v>4.880263595686813</v>
+        <v>16.19733911071626</v>
       </c>
       <c r="H21">
-        <v>2.98259652285725</v>
+        <v>7.77155501252912</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1739115885413014</v>
+        <v>0.3656693584704414</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709383</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4709061736978981</v>
+        <v>0.9618153124812352</v>
       </c>
       <c r="D22">
-        <v>0.2242898467258669</v>
+        <v>0.709498021457847</v>
       </c>
       <c r="E22">
-        <v>0.2014595680060083</v>
+        <v>0.4396357552484886</v>
       </c>
       <c r="F22">
-        <v>4.513301266596727</v>
+        <v>15.14569387987149</v>
       </c>
       <c r="G22">
-        <v>5.107851384151218</v>
+        <v>18.33160392194389</v>
       </c>
       <c r="H22">
-        <v>3.083005467025714</v>
+        <v>8.779438096995193</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1780606847380568</v>
+        <v>0.4133197879087334</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057956</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4659139666193539</v>
+        <v>0.9023303756663097</v>
       </c>
       <c r="D23">
-        <v>0.2200903934251812</v>
+        <v>0.6612962510716898</v>
       </c>
       <c r="E23">
-        <v>0.1991318052414854</v>
+        <v>0.4119510256689409</v>
       </c>
       <c r="F23">
-        <v>4.414356361456555</v>
+        <v>14.1766966757736</v>
       </c>
       <c r="G23">
-        <v>4.986053475071742</v>
+        <v>17.14952951980979</v>
       </c>
       <c r="H23">
-        <v>3.02921931974447</v>
+        <v>8.221015371799069</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1758350602497245</v>
+        <v>0.3868691865411336</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934252</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.447612936177336</v>
+        <v>0.7157284621252131</v>
       </c>
       <c r="D24">
-        <v>0.204514645519339</v>
+        <v>0.5123498219422231</v>
       </c>
       <c r="E24">
-        <v>0.1905826106539976</v>
+        <v>0.3253467500139777</v>
       </c>
       <c r="F24">
-        <v>4.04587435232574</v>
+        <v>11.11474855398197</v>
       </c>
       <c r="G24">
-        <v>4.531862677884931</v>
+        <v>13.41797161486272</v>
       </c>
       <c r="H24">
-        <v>2.829748638198907</v>
+        <v>6.461742938861391</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1676479403671038</v>
+        <v>0.3043421289861925</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4291212773186999</v>
+        <v>0.5571815134989322</v>
       </c>
       <c r="D25">
-        <v>0.1883781532025068</v>
+        <v>0.3879325422302173</v>
       </c>
       <c r="E25">
-        <v>0.1819092697119515</v>
+        <v>0.2520024235128631</v>
       </c>
       <c r="F25">
-        <v>3.661011727456582</v>
+        <v>8.480752006334228</v>
       </c>
       <c r="G25">
-        <v>4.056177817182629</v>
+        <v>10.21100064283098</v>
       </c>
       <c r="H25">
-        <v>2.623202387292906</v>
+        <v>4.955388822889574</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1593129888777014</v>
+        <v>0.2346659878245987</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
         <v>0</v>
